--- a/All month comparison/Jan 2023 CPA Data.xlsx
+++ b/All month comparison/Jan 2023 CPA Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganbebis/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justinlee/Desktop/cpa/code/All month comparison/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C929DFFA-0519-4661-B927-31F4F5D3CE95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A78D9C-6818-3344-893C-88AD5EC20D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="63180" yWindow="3160" windowWidth="31600" windowHeight="17700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -36,16 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="150">
-  <si>
-    <t>Northeastern University</t>
-  </si>
-  <si>
-    <t>Appointments</t>
-  </si>
-  <si>
-    <t>01/01/2023 to 01/31/2023</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="147">
   <si>
     <t>Student Name</t>
   </si>
@@ -499,7 +490,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -976,9 +967,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -37199,18 +37189,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W57"/>
+  <dimension ref="A1:W55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -37220,217 +37210,323 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1">
-        <v>44973.454861111109</v>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>2774742</v>
+      </c>
+      <c r="D2" t="str">
+        <f>VLOOKUP(C2,[1]report1676566213232!$A:$D,4,FALSE)</f>
+        <v>MSCS Computer Science - Align</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2">
+        <v>1525702</v>
+      </c>
+      <c r="S2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>2774742</v>
+      </c>
+      <c r="D3" t="str">
+        <f>VLOOKUP(C3,[1]report1676566213232!$A:$D,4,FALSE)</f>
+        <v>MSCS Computer Science - Align</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="K3" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="L3" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="M3" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="N3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="O3" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="P3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R3" t="s">
-        <v>20</v>
+        <v>40</v>
+      </c>
+      <c r="R3">
+        <v>1545504</v>
       </c>
       <c r="S3" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="T3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="U3" t="s">
+        <v>42</v>
+      </c>
+      <c r="V3" t="s">
+        <v>43</v>
+      </c>
+      <c r="W3" t="s">
         <v>23</v>
       </c>
-      <c r="V3" t="s">
-        <v>24</v>
-      </c>
-      <c r="W3" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C4">
-        <v>2774742</v>
+        <v>2792423</v>
       </c>
       <c r="D4" t="str">
         <f>VLOOKUP(C4,[1]report1676566213232!$A:$D,4,FALSE)</f>
-        <v>MSCS Computer Science - Align</v>
+        <v>MSCS Computer Science</v>
       </c>
       <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
         <v>29</v>
       </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" t="s">
         <v>31</v>
       </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>32</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="s">
         <v>33</v>
       </c>
-      <c r="K4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" t="s">
-        <v>35</v>
-      </c>
-      <c r="M4" t="s">
-        <v>36</v>
-      </c>
       <c r="N4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>40</v>
+      </c>
+      <c r="R4">
+        <v>1545504</v>
+      </c>
+      <c r="S4" t="s">
+        <v>41</v>
+      </c>
+      <c r="T4" t="s">
         <v>37</v>
       </c>
-      <c r="P4" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>38</v>
-      </c>
-      <c r="R4">
-        <v>1525702</v>
-      </c>
-      <c r="S4" t="s">
-        <v>39</v>
-      </c>
-      <c r="T4" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C5">
-        <v>2774742</v>
+        <v>2792423</v>
       </c>
       <c r="D5" t="str">
         <f>VLOOKUP(C5,[1]report1676566213232!$A:$D,4,FALSE)</f>
-        <v>MSCS Computer Science - Align</v>
+        <v>MSCS Computer Science</v>
       </c>
       <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
         <v>28</v>
       </c>
-      <c r="F5" t="s">
+      <c r="I5" t="s">
         <v>29</v>
       </c>
-      <c r="G5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" t="s">
         <v>31</v>
       </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>32</v>
       </c>
-      <c r="J5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q5" t="s">
         <v>35</v>
       </c>
-      <c r="M5" t="s">
+      <c r="R5">
+        <v>1525702</v>
+      </c>
+      <c r="S5" t="s">
         <v>36</v>
       </c>
-      <c r="N5" t="s">
-        <v>26</v>
-      </c>
-      <c r="O5" t="s">
-        <v>42</v>
-      </c>
-      <c r="P5" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>43</v>
-      </c>
-      <c r="R5">
-        <v>1545504</v>
-      </c>
-      <c r="S5" t="s">
-        <v>44</v>
-      </c>
       <c r="T5" t="s">
-        <v>31</v>
-      </c>
-      <c r="U5" t="s">
-        <v>45</v>
-      </c>
-      <c r="V5" t="s">
-        <v>46</v>
-      </c>
-      <c r="W5" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -37438,59 +37534,61 @@
         <v>48</v>
       </c>
       <c r="C6">
-        <v>2792423</v>
-      </c>
-      <c r="D6" t="str">
-        <f>VLOOKUP(C6,[1]report1676566213232!$A:$D,4,FALSE)</f>
-        <v>MSCS Computer Science</v>
+        <v>2242666</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
       </c>
       <c r="E6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
         <v>28</v>
       </c>
-      <c r="F6" t="s">
+      <c r="I6" t="s">
         <v>29</v>
       </c>
-      <c r="G6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" t="s">
         <v>31</v>
       </c>
-      <c r="I6" t="s">
+      <c r="L6" t="s">
         <v>32</v>
       </c>
-      <c r="J6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6" t="s">
-        <v>35</v>
-      </c>
       <c r="M6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N6" t="s">
         <v>47</v>
       </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
       <c r="P6" t="s">
         <v>47</v>
       </c>
       <c r="Q6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R6">
         <v>1545504</v>
       </c>
       <c r="S6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -37498,675 +37596,682 @@
         <v>48</v>
       </c>
       <c r="C7">
-        <v>2792423</v>
-      </c>
-      <c r="D7" t="str">
-        <f>VLOOKUP(C7,[1]report1676566213232!$A:$D,4,FALSE)</f>
-        <v>MSCS Computer Science</v>
+        <v>2242666</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
       </c>
       <c r="E7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
         <v>28</v>
       </c>
-      <c r="F7" t="s">
+      <c r="I7" t="s">
         <v>29</v>
       </c>
-      <c r="G7" t="s">
+      <c r="J7" t="s">
         <v>30</v>
       </c>
-      <c r="H7" t="s">
+      <c r="K7" t="s">
         <v>31</v>
       </c>
-      <c r="I7" t="s">
+      <c r="L7" t="s">
         <v>32</v>
       </c>
-      <c r="J7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" t="s">
-        <v>35</v>
-      </c>
       <c r="M7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N7" t="s">
         <v>47</v>
       </c>
+      <c r="O7" t="s">
+        <v>55</v>
+      </c>
       <c r="P7" t="s">
         <v>47</v>
       </c>
       <c r="Q7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="R7">
         <v>1525702</v>
       </c>
       <c r="S7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="T7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8">
+        <v>2687537</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>61</v>
+      </c>
+      <c r="R8">
+        <v>1540028</v>
+      </c>
+      <c r="S8" t="s">
+        <v>62</v>
+      </c>
+      <c r="T8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9">
+        <v>1063327</v>
+      </c>
+      <c r="D9" t="str">
+        <f>VLOOKUP(C9,[1]report1676566213232!$A:$D,4,FALSE)</f>
+        <v>MSCS Computer Science - Align</v>
+      </c>
+      <c r="E9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9" t="s">
+        <v>63</v>
+      </c>
+      <c r="P9" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q9" t="s">
         <v>40</v>
       </c>
+      <c r="R9">
+        <v>1545504</v>
+      </c>
+      <c r="S9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T9" t="s">
+        <v>28</v>
+      </c>
+      <c r="U9" t="s">
+        <v>42</v>
+      </c>
+      <c r="W9" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="8" spans="1:23">
-      <c r="A8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8">
-        <v>2242666</v>
-      </c>
-      <c r="D8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" t="s">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10">
+        <v>1063327</v>
+      </c>
+      <c r="D10" t="str">
+        <f>VLOOKUP(C10,[1]report1676566213232!$A:$D,4,FALSE)</f>
+        <v>MSCS Computer Science - Align</v>
+      </c>
+      <c r="E10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" t="s">
         <v>31</v>
       </c>
-      <c r="I8" t="s">
+      <c r="L10" t="s">
         <v>32</v>
       </c>
-      <c r="J8" t="s">
-        <v>55</v>
-      </c>
-      <c r="K8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L8" t="s">
-        <v>35</v>
-      </c>
-      <c r="M8" t="s">
-        <v>36</v>
-      </c>
-      <c r="N8" t="s">
-        <v>50</v>
-      </c>
-      <c r="O8" t="s">
-        <v>56</v>
-      </c>
-      <c r="P8" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>43</v>
-      </c>
-      <c r="R8">
-        <v>1545504</v>
-      </c>
-      <c r="S8" t="s">
-        <v>44</v>
-      </c>
-      <c r="T8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23">
-      <c r="A9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9">
-        <v>2242666</v>
-      </c>
-      <c r="D9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="M10" t="s">
         <v>33</v>
       </c>
-      <c r="K9" t="s">
-        <v>34</v>
-      </c>
-      <c r="L9" t="s">
-        <v>35</v>
-      </c>
-      <c r="M9" t="s">
-        <v>36</v>
-      </c>
-      <c r="N9" t="s">
-        <v>50</v>
-      </c>
-      <c r="O9" t="s">
-        <v>58</v>
-      </c>
-      <c r="P9" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>38</v>
-      </c>
-      <c r="R9">
-        <v>1525702</v>
-      </c>
-      <c r="S9" t="s">
-        <v>39</v>
-      </c>
-      <c r="T9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23">
-      <c r="A10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10">
-        <v>2687537</v>
-      </c>
-      <c r="D10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="N10" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q10" t="s">
         <v>61</v>
-      </c>
-      <c r="G10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" t="s">
-        <v>63</v>
-      </c>
-      <c r="K10" t="s">
-        <v>34</v>
-      </c>
-      <c r="L10" t="s">
-        <v>35</v>
-      </c>
-      <c r="M10" t="s">
-        <v>36</v>
-      </c>
-      <c r="N10" t="s">
-        <v>59</v>
-      </c>
-      <c r="P10" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>64</v>
       </c>
       <c r="R10">
         <v>1540028</v>
       </c>
       <c r="S10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="T10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C11">
-        <v>1063327</v>
+        <v>2752314</v>
       </c>
       <c r="D11" t="str">
         <f>VLOOKUP(C11,[1]report1676566213232!$A:$D,4,FALSE)</f>
         <v>MSCS Computer Science - Align</v>
       </c>
       <c r="E11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" t="s">
+        <v>67</v>
+      </c>
+      <c r="P11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>61</v>
+      </c>
+      <c r="R11">
+        <v>1540028</v>
+      </c>
+      <c r="S11" t="s">
+        <v>62</v>
+      </c>
+      <c r="T11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" t="s">
         <v>68</v>
       </c>
-      <c r="F11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" t="s">
-        <v>69</v>
-      </c>
-      <c r="H11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11" t="s">
-        <v>49</v>
-      </c>
-      <c r="K11" t="s">
-        <v>34</v>
-      </c>
-      <c r="L11" t="s">
-        <v>35</v>
-      </c>
-      <c r="M11" t="s">
-        <v>36</v>
-      </c>
-      <c r="N11" t="s">
-        <v>66</v>
-      </c>
-      <c r="P11" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>43</v>
-      </c>
-      <c r="R11">
-        <v>1545504</v>
-      </c>
-      <c r="S11" t="s">
-        <v>44</v>
-      </c>
-      <c r="T11" t="s">
-        <v>31</v>
-      </c>
-      <c r="U11" t="s">
-        <v>45</v>
-      </c>
-      <c r="W11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23">
-      <c r="A12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" t="s">
-        <v>67</v>
-      </c>
       <c r="C12">
-        <v>1063327</v>
+        <v>2752314</v>
       </c>
       <c r="D12" t="str">
         <f>VLOOKUP(C12,[1]report1676566213232!$A:$D,4,FALSE)</f>
         <v>MSCS Computer Science - Align</v>
       </c>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" t="s">
+        <v>33</v>
+      </c>
+      <c r="N12" t="s">
+        <v>67</v>
+      </c>
+      <c r="O12" t="s">
+        <v>72</v>
+      </c>
+      <c r="P12" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q12" t="s">
         <v>61</v>
-      </c>
-      <c r="G12" t="s">
-        <v>69</v>
-      </c>
-      <c r="H12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" t="s">
-        <v>32</v>
-      </c>
-      <c r="J12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K12" t="s">
-        <v>34</v>
-      </c>
-      <c r="L12" t="s">
-        <v>35</v>
-      </c>
-      <c r="M12" t="s">
-        <v>36</v>
-      </c>
-      <c r="N12" t="s">
-        <v>66</v>
-      </c>
-      <c r="P12" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>64</v>
       </c>
       <c r="R12">
         <v>1540028</v>
       </c>
       <c r="S12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="T12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13">
+        <v>126837</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" t="s">
+        <v>33</v>
+      </c>
+      <c r="N13" t="s">
+        <v>73</v>
+      </c>
+      <c r="O13" t="s">
+        <v>76</v>
+      </c>
+      <c r="P13" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>35</v>
+      </c>
+      <c r="R13">
+        <v>1525702</v>
+      </c>
+      <c r="S13" t="s">
+        <v>36</v>
+      </c>
+      <c r="T13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14">
+        <v>1507836</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" t="s">
+        <v>60</v>
+      </c>
+      <c r="K14" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" t="s">
+        <v>33</v>
+      </c>
+      <c r="N14" t="s">
+        <v>77</v>
+      </c>
+      <c r="P14" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q14" t="s">
         <v>40</v>
       </c>
+      <c r="R14">
+        <v>1545504</v>
+      </c>
+      <c r="S14" t="s">
+        <v>41</v>
+      </c>
+      <c r="T14" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="13" spans="1:23">
-      <c r="A13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13">
-        <v>2752314</v>
-      </c>
-      <c r="D13" t="str">
-        <f>VLOOKUP(C13,[1]report1676566213232!$A:$D,4,FALSE)</f>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15">
+        <v>2956442</v>
+      </c>
+      <c r="D15" t="str">
+        <f>VLOOKUP(C15,[1]report1676566213232!$A:$D,4,FALSE)</f>
         <v>MSCS Computer Science - Align</v>
       </c>
-      <c r="E13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="E15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15" t="s">
+        <v>33</v>
+      </c>
+      <c r="N15" t="s">
+        <v>82</v>
+      </c>
+      <c r="O15" t="s">
+        <v>85</v>
+      </c>
+      <c r="P15" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q15" t="s">
         <v>61</v>
       </c>
-      <c r="G13" t="s">
-        <v>73</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="R15">
+        <v>1540028</v>
+      </c>
+      <c r="S15" t="s">
+        <v>62</v>
+      </c>
+      <c r="T15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16">
+        <v>2702586</v>
+      </c>
+      <c r="D16" t="str">
+        <f>VLOOKUP(C16,[1]report1676566213232!$A:$D,4,FALSE)</f>
+        <v>MSCS Computer Science - Align</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" t="s">
+        <v>60</v>
+      </c>
+      <c r="K16" t="s">
         <v>31</v>
       </c>
-      <c r="I13" t="s">
+      <c r="L16" t="s">
         <v>32</v>
       </c>
-      <c r="J13" t="s">
-        <v>63</v>
-      </c>
-      <c r="K13" t="s">
-        <v>34</v>
-      </c>
-      <c r="L13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M13" t="s">
-        <v>36</v>
-      </c>
-      <c r="N13" t="s">
-        <v>70</v>
-      </c>
-      <c r="P13" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>64</v>
-      </c>
-      <c r="R13">
-        <v>1540028</v>
-      </c>
-      <c r="S13" t="s">
-        <v>65</v>
-      </c>
-      <c r="T13" t="s">
+      <c r="M16" t="s">
+        <v>33</v>
+      </c>
+      <c r="N16" t="s">
+        <v>86</v>
+      </c>
+      <c r="O16" t="s">
+        <v>88</v>
+      </c>
+      <c r="P16" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q16" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23">
-      <c r="A14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14">
-        <v>2752314</v>
-      </c>
-      <c r="D14" t="str">
-        <f>VLOOKUP(C14,[1]report1676566213232!$A:$D,4,FALSE)</f>
-        <v>MSCS Computer Science - Align</v>
-      </c>
-      <c r="E14" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" t="s">
-        <v>73</v>
-      </c>
-      <c r="H14" t="s">
-        <v>31</v>
-      </c>
-      <c r="I14" t="s">
-        <v>32</v>
-      </c>
-      <c r="J14" t="s">
-        <v>74</v>
-      </c>
-      <c r="K14" t="s">
-        <v>34</v>
-      </c>
-      <c r="L14" t="s">
-        <v>35</v>
-      </c>
-      <c r="M14" t="s">
-        <v>36</v>
-      </c>
-      <c r="N14" t="s">
-        <v>70</v>
-      </c>
-      <c r="O14" t="s">
-        <v>75</v>
-      </c>
-      <c r="P14" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>64</v>
-      </c>
-      <c r="R14">
-        <v>1540028</v>
-      </c>
-      <c r="S14" t="s">
-        <v>65</v>
-      </c>
-      <c r="T14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23">
-      <c r="A15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15">
-        <v>126837</v>
-      </c>
-      <c r="D15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" t="s">
-        <v>32</v>
-      </c>
-      <c r="J15" t="s">
-        <v>49</v>
-      </c>
-      <c r="K15" t="s">
-        <v>34</v>
-      </c>
-      <c r="L15" t="s">
-        <v>35</v>
-      </c>
-      <c r="M15" t="s">
-        <v>36</v>
-      </c>
-      <c r="N15" t="s">
-        <v>76</v>
-      </c>
-      <c r="O15" t="s">
-        <v>79</v>
-      </c>
-      <c r="P15" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>38</v>
-      </c>
-      <c r="R15">
-        <v>1525702</v>
-      </c>
-      <c r="S15" t="s">
-        <v>39</v>
-      </c>
-      <c r="T15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23">
-      <c r="A16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16">
-        <v>1507836</v>
-      </c>
-      <c r="D16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" t="s">
-        <v>82</v>
-      </c>
-      <c r="F16" t="s">
-        <v>83</v>
-      </c>
-      <c r="G16" t="s">
-        <v>84</v>
-      </c>
-      <c r="H16" t="s">
-        <v>31</v>
-      </c>
-      <c r="I16" t="s">
-        <v>32</v>
-      </c>
-      <c r="J16" t="s">
-        <v>63</v>
-      </c>
-      <c r="K16" t="s">
-        <v>34</v>
-      </c>
-      <c r="L16" t="s">
-        <v>35</v>
-      </c>
-      <c r="M16" t="s">
-        <v>36</v>
-      </c>
-      <c r="N16" t="s">
-        <v>80</v>
-      </c>
-      <c r="P16" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>43</v>
       </c>
       <c r="R16">
         <v>1545504</v>
       </c>
       <c r="S16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C17">
-        <v>2956442</v>
+        <v>2916483</v>
       </c>
       <c r="D17" t="str">
         <f>VLOOKUP(C17,[1]report1676566213232!$A:$D,4,FALSE)</f>
         <v>MSCS Computer Science - Align</v>
       </c>
       <c r="E17" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="G17" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" t="s">
+        <v>60</v>
+      </c>
+      <c r="K17" t="s">
         <v>31</v>
       </c>
-      <c r="I17" t="s">
+      <c r="L17" t="s">
         <v>32</v>
       </c>
-      <c r="J17" t="s">
-        <v>49</v>
-      </c>
-      <c r="K17" t="s">
-        <v>34</v>
-      </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N17" t="s">
+        <v>89</v>
+      </c>
+      <c r="P17" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q17" t="s">
         <v>35</v>
       </c>
-      <c r="M17" t="s">
+      <c r="R17">
+        <v>1525702</v>
+      </c>
+      <c r="S17" t="s">
         <v>36</v>
       </c>
-      <c r="N17" t="s">
-        <v>85</v>
-      </c>
-      <c r="O17" t="s">
-        <v>88</v>
-      </c>
-      <c r="P17" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>64</v>
-      </c>
-      <c r="R17">
-        <v>1540028</v>
-      </c>
-      <c r="S17" t="s">
-        <v>65</v>
-      </c>
       <c r="T17" t="s">
-        <v>40</v>
+        <v>28</v>
+      </c>
+      <c r="U17" t="s">
+        <v>42</v>
+      </c>
+      <c r="W17" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>89</v>
       </c>
@@ -38174,67 +38279,64 @@
         <v>90</v>
       </c>
       <c r="C18">
-        <v>2702586</v>
+        <v>2916483</v>
       </c>
       <c r="D18" t="str">
         <f>VLOOKUP(C18,[1]report1676566213232!$A:$D,4,FALSE)</f>
         <v>MSCS Computer Science - Align</v>
       </c>
       <c r="E18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" t="s">
+        <v>92</v>
+      </c>
+      <c r="H18" t="s">
         <v>28</v>
       </c>
-      <c r="F18" t="s">
+      <c r="I18" t="s">
         <v>29</v>
       </c>
-      <c r="G18" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="J18" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18" t="s">
         <v>31</v>
       </c>
-      <c r="I18" t="s">
+      <c r="L18" t="s">
         <v>32</v>
       </c>
-      <c r="J18" t="s">
-        <v>63</v>
-      </c>
-      <c r="K18" t="s">
-        <v>34</v>
-      </c>
-      <c r="L18" t="s">
-        <v>35</v>
-      </c>
       <c r="M18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N18" t="s">
         <v>89</v>
       </c>
-      <c r="O18" t="s">
-        <v>91</v>
-      </c>
       <c r="P18" t="s">
         <v>89</v>
       </c>
       <c r="Q18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R18">
         <v>1545504</v>
       </c>
       <c r="S18" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C19">
         <v>2916483</v>
@@ -38244,753 +38346,759 @@
         <v>MSCS Computer Science - Align</v>
       </c>
       <c r="E19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G19" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" t="s">
+        <v>60</v>
+      </c>
+      <c r="K19" t="s">
         <v>31</v>
       </c>
-      <c r="I19" t="s">
+      <c r="L19" t="s">
         <v>32</v>
       </c>
-      <c r="J19" t="s">
-        <v>63</v>
-      </c>
-      <c r="K19" t="s">
-        <v>34</v>
-      </c>
-      <c r="L19" t="s">
-        <v>35</v>
-      </c>
       <c r="M19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N19" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="P19" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="Q19" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="R19">
-        <v>1525702</v>
+        <v>1540028</v>
       </c>
       <c r="S19" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="T19" t="s">
-        <v>31</v>
-      </c>
-      <c r="U19" t="s">
-        <v>45</v>
-      </c>
-      <c r="W19" t="s">
-        <v>92</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C20">
-        <v>2916483</v>
+        <v>2956442</v>
       </c>
       <c r="D20" t="str">
         <f>VLOOKUP(C20,[1]report1676566213232!$A:$D,4,FALSE)</f>
         <v>MSCS Computer Science - Align</v>
       </c>
       <c r="E20" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F20" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="G20" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K20" t="s">
         <v>31</v>
       </c>
-      <c r="I20" t="s">
+      <c r="L20" t="s">
         <v>32</v>
       </c>
-      <c r="J20" t="s">
-        <v>41</v>
-      </c>
-      <c r="K20" t="s">
-        <v>34</v>
-      </c>
-      <c r="L20" t="s">
-        <v>35</v>
-      </c>
       <c r="M20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N20" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="P20" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="Q20" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="R20">
-        <v>1545504</v>
+        <v>1540028</v>
       </c>
       <c r="S20" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="T20" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C21">
-        <v>2916483</v>
+        <v>2956442</v>
       </c>
       <c r="D21" t="str">
         <f>VLOOKUP(C21,[1]report1676566213232!$A:$D,4,FALSE)</f>
         <v>MSCS Computer Science - Align</v>
       </c>
       <c r="E21" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F21" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="G21" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" t="s">
+        <v>38</v>
+      </c>
+      <c r="K21" t="s">
         <v>31</v>
       </c>
-      <c r="I21" t="s">
+      <c r="L21" t="s">
         <v>32</v>
       </c>
-      <c r="J21" t="s">
-        <v>63</v>
-      </c>
-      <c r="K21" t="s">
-        <v>34</v>
-      </c>
-      <c r="L21" t="s">
-        <v>35</v>
-      </c>
       <c r="M21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N21" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="P21" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="Q21" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R21">
         <v>1540028</v>
       </c>
       <c r="S21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="T21" t="s">
-        <v>40</v>
+        <v>28</v>
+      </c>
+      <c r="U21" t="s">
+        <v>42</v>
+      </c>
+      <c r="V21" t="s">
+        <v>93</v>
+      </c>
+      <c r="W21" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C22">
-        <v>2956442</v>
+        <v>2958793</v>
       </c>
       <c r="D22" t="str">
         <f>VLOOKUP(C22,[1]report1676566213232!$A:$D,4,FALSE)</f>
-        <v>MSCS Computer Science - Align</v>
+        <v>MSCS Computer Science</v>
       </c>
       <c r="E22" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" t="s">
+        <v>60</v>
+      </c>
+      <c r="K22" t="s">
+        <v>31</v>
+      </c>
+      <c r="L22" t="s">
+        <v>32</v>
+      </c>
+      <c r="M22" t="s">
+        <v>33</v>
+      </c>
+      <c r="N22" t="s">
+        <v>94</v>
+      </c>
+      <c r="P22" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>40</v>
+      </c>
+      <c r="R22">
+        <v>1545504</v>
+      </c>
+      <c r="S22" t="s">
+        <v>41</v>
+      </c>
+      <c r="T22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23">
+        <v>2677830</v>
+      </c>
+      <c r="D23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" t="s">
+        <v>81</v>
+      </c>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" t="s">
+        <v>52</v>
+      </c>
+      <c r="K23" t="s">
+        <v>31</v>
+      </c>
+      <c r="L23" t="s">
+        <v>32</v>
+      </c>
+      <c r="M23" t="s">
+        <v>33</v>
+      </c>
+      <c r="N23" t="s">
+        <v>96</v>
+      </c>
+      <c r="O23" t="s">
+        <v>98</v>
+      </c>
+      <c r="P23" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q23" t="s">
         <v>61</v>
-      </c>
-      <c r="G22" t="s">
-        <v>87</v>
-      </c>
-      <c r="H22" t="s">
-        <v>31</v>
-      </c>
-      <c r="I22" t="s">
-        <v>32</v>
-      </c>
-      <c r="J22" t="s">
-        <v>49</v>
-      </c>
-      <c r="K22" t="s">
-        <v>34</v>
-      </c>
-      <c r="L22" t="s">
-        <v>35</v>
-      </c>
-      <c r="M22" t="s">
-        <v>36</v>
-      </c>
-      <c r="N22" t="s">
-        <v>85</v>
-      </c>
-      <c r="P22" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>64</v>
-      </c>
-      <c r="R22">
-        <v>1540028</v>
-      </c>
-      <c r="S22" t="s">
-        <v>65</v>
-      </c>
-      <c r="T22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23">
-      <c r="A23" t="s">
-        <v>85</v>
-      </c>
-      <c r="B23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23">
-        <v>2956442</v>
-      </c>
-      <c r="D23" t="str">
-        <f>VLOOKUP(C23,[1]report1676566213232!$A:$D,4,FALSE)</f>
-        <v>MSCS Computer Science - Align</v>
-      </c>
-      <c r="E23" t="s">
-        <v>78</v>
-      </c>
-      <c r="F23" t="s">
-        <v>61</v>
-      </c>
-      <c r="G23" t="s">
-        <v>87</v>
-      </c>
-      <c r="H23" t="s">
-        <v>31</v>
-      </c>
-      <c r="I23" t="s">
-        <v>32</v>
-      </c>
-      <c r="J23" t="s">
-        <v>41</v>
-      </c>
-      <c r="K23" t="s">
-        <v>34</v>
-      </c>
-      <c r="L23" t="s">
-        <v>35</v>
-      </c>
-      <c r="M23" t="s">
-        <v>36</v>
-      </c>
-      <c r="N23" t="s">
-        <v>85</v>
-      </c>
-      <c r="P23" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>64</v>
       </c>
       <c r="R23">
         <v>1540028</v>
       </c>
       <c r="S23" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="T23" t="s">
+        <v>28</v>
+      </c>
+      <c r="U23" t="s">
+        <v>42</v>
+      </c>
+      <c r="V23" t="s">
+        <v>99</v>
+      </c>
+      <c r="W23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24">
+        <v>2677830</v>
+      </c>
+      <c r="D24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" t="s">
+        <v>81</v>
+      </c>
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" t="s">
+        <v>52</v>
+      </c>
+      <c r="K24" t="s">
         <v>31</v>
       </c>
-      <c r="U23" t="s">
-        <v>45</v>
-      </c>
-      <c r="V23" t="s">
+      <c r="L24" t="s">
+        <v>32</v>
+      </c>
+      <c r="M24" t="s">
+        <v>33</v>
+      </c>
+      <c r="N24" t="s">
         <v>96</v>
       </c>
-      <c r="W23" t="s">
-        <v>85</v>
+      <c r="O24" t="s">
+        <v>98</v>
+      </c>
+      <c r="P24" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>61</v>
+      </c>
+      <c r="R24">
+        <v>1540028</v>
+      </c>
+      <c r="S24" t="s">
+        <v>62</v>
+      </c>
+      <c r="T24" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
-      <c r="A24" t="s">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" t="s">
         <v>97</v>
-      </c>
-      <c r="B24" t="s">
-        <v>98</v>
-      </c>
-      <c r="C24">
-        <v>2958793</v>
-      </c>
-      <c r="D24" t="str">
-        <f>VLOOKUP(C24,[1]report1676566213232!$A:$D,4,FALSE)</f>
-        <v>MSCS Computer Science</v>
-      </c>
-      <c r="E24" t="s">
-        <v>72</v>
-      </c>
-      <c r="F24" t="s">
-        <v>61</v>
-      </c>
-      <c r="G24" t="s">
-        <v>73</v>
-      </c>
-      <c r="H24" t="s">
-        <v>31</v>
-      </c>
-      <c r="I24" t="s">
-        <v>32</v>
-      </c>
-      <c r="J24" t="s">
-        <v>63</v>
-      </c>
-      <c r="K24" t="s">
-        <v>34</v>
-      </c>
-      <c r="L24" t="s">
-        <v>35</v>
-      </c>
-      <c r="M24" t="s">
-        <v>36</v>
-      </c>
-      <c r="N24" t="s">
-        <v>97</v>
-      </c>
-      <c r="P24" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>43</v>
-      </c>
-      <c r="R24">
-        <v>1545504</v>
-      </c>
-      <c r="S24" t="s">
-        <v>44</v>
-      </c>
-      <c r="T24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23">
-      <c r="A25" t="s">
-        <v>99</v>
-      </c>
-      <c r="B25" t="s">
-        <v>100</v>
       </c>
       <c r="C25">
         <v>2677830</v>
       </c>
       <c r="D25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G25" t="s">
+        <v>81</v>
+      </c>
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" t="s">
         <v>52</v>
       </c>
-      <c r="E25" t="s">
-        <v>53</v>
-      </c>
-      <c r="F25" t="s">
-        <v>83</v>
-      </c>
-      <c r="G25" t="s">
-        <v>84</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="K25" t="s">
         <v>31</v>
       </c>
-      <c r="I25" t="s">
+      <c r="L25" t="s">
         <v>32</v>
       </c>
-      <c r="J25" t="s">
-        <v>55</v>
-      </c>
-      <c r="K25" t="s">
-        <v>34</v>
-      </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
+        <v>33</v>
+      </c>
+      <c r="N25" t="s">
+        <v>96</v>
+      </c>
+      <c r="O25" t="s">
+        <v>98</v>
+      </c>
+      <c r="P25" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q25" t="s">
         <v>35</v>
       </c>
-      <c r="M25" t="s">
+      <c r="R25">
+        <v>1525702</v>
+      </c>
+      <c r="S25" t="s">
         <v>36</v>
       </c>
-      <c r="N25" t="s">
-        <v>99</v>
-      </c>
-      <c r="O25" t="s">
+      <c r="T25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26">
+        <v>2916483</v>
+      </c>
+      <c r="D26" t="str">
+        <f>VLOOKUP(C26,[1]report1676566213232!$A:$D,4,FALSE)</f>
+        <v>MSCS Computer Science - Align</v>
+      </c>
+      <c r="E26" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26" t="s">
+        <v>91</v>
+      </c>
+      <c r="G26" t="s">
+        <v>92</v>
+      </c>
+      <c r="H26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" t="s">
+        <v>38</v>
+      </c>
+      <c r="K26" t="s">
+        <v>31</v>
+      </c>
+      <c r="L26" t="s">
+        <v>32</v>
+      </c>
+      <c r="M26" t="s">
+        <v>33</v>
+      </c>
+      <c r="N26" t="s">
+        <v>89</v>
+      </c>
+      <c r="P26" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>35</v>
+      </c>
+      <c r="R26">
+        <v>1525702</v>
+      </c>
+      <c r="S26" t="s">
+        <v>36</v>
+      </c>
+      <c r="T26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" t="s">
         <v>101</v>
       </c>
-      <c r="P25" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>64</v>
-      </c>
-      <c r="R25">
-        <v>1540028</v>
-      </c>
-      <c r="S25" t="s">
-        <v>65</v>
-      </c>
-      <c r="T25" t="s">
+      <c r="C27">
+        <v>2674210</v>
+      </c>
+      <c r="D27" t="str">
+        <f>VLOOKUP(C27,[1]report1676566213232!$A:$D,4,FALSE)</f>
+        <v>MSCS Computer Science - Align</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" t="s">
+        <v>66</v>
+      </c>
+      <c r="H27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" t="s">
+        <v>60</v>
+      </c>
+      <c r="K27" t="s">
         <v>31</v>
       </c>
-      <c r="U25" t="s">
-        <v>45</v>
-      </c>
-      <c r="V25" t="s">
-        <v>102</v>
-      </c>
-      <c r="W25" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23">
-      <c r="A26" t="s">
-        <v>99</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="L27" t="s">
+        <v>32</v>
+      </c>
+      <c r="M27" t="s">
+        <v>33</v>
+      </c>
+      <c r="N27" t="s">
         <v>100</v>
       </c>
-      <c r="C26">
-        <v>2677830</v>
-      </c>
-      <c r="D26" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" t="s">
-        <v>53</v>
-      </c>
-      <c r="F26" t="s">
-        <v>83</v>
-      </c>
-      <c r="G26" t="s">
-        <v>84</v>
-      </c>
-      <c r="H26" t="s">
-        <v>31</v>
-      </c>
-      <c r="I26" t="s">
-        <v>32</v>
-      </c>
-      <c r="J26" t="s">
-        <v>55</v>
-      </c>
-      <c r="K26" t="s">
-        <v>34</v>
-      </c>
-      <c r="L26" t="s">
+      <c r="P27" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q27" t="s">
         <v>35</v>
-      </c>
-      <c r="M26" t="s">
-        <v>36</v>
-      </c>
-      <c r="N26" t="s">
-        <v>99</v>
-      </c>
-      <c r="O26" t="s">
-        <v>101</v>
-      </c>
-      <c r="P26" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>64</v>
-      </c>
-      <c r="R26">
-        <v>1540028</v>
-      </c>
-      <c r="S26" t="s">
-        <v>65</v>
-      </c>
-      <c r="T26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23">
-      <c r="A27" t="s">
-        <v>99</v>
-      </c>
-      <c r="B27" t="s">
-        <v>100</v>
-      </c>
-      <c r="C27">
-        <v>2677830</v>
-      </c>
-      <c r="D27" t="s">
-        <v>52</v>
-      </c>
-      <c r="E27" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>83</v>
-      </c>
-      <c r="G27" t="s">
-        <v>84</v>
-      </c>
-      <c r="H27" t="s">
-        <v>31</v>
-      </c>
-      <c r="I27" t="s">
-        <v>32</v>
-      </c>
-      <c r="J27" t="s">
-        <v>55</v>
-      </c>
-      <c r="K27" t="s">
-        <v>34</v>
-      </c>
-      <c r="L27" t="s">
-        <v>35</v>
-      </c>
-      <c r="M27" t="s">
-        <v>36</v>
-      </c>
-      <c r="N27" t="s">
-        <v>99</v>
-      </c>
-      <c r="O27" t="s">
-        <v>101</v>
-      </c>
-      <c r="P27" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>38</v>
       </c>
       <c r="R27">
         <v>1525702</v>
       </c>
       <c r="S27" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="T27" t="s">
-        <v>40</v>
+        <v>28</v>
+      </c>
+      <c r="U27" t="s">
+        <v>42</v>
+      </c>
+      <c r="W27" t="s">
+        <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C28">
-        <v>2916483</v>
+        <v>2702586</v>
       </c>
       <c r="D28" t="str">
         <f>VLOOKUP(C28,[1]report1676566213232!$A:$D,4,FALSE)</f>
         <v>MSCS Computer Science - Align</v>
       </c>
       <c r="E28" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="F28" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="G28" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="H28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" t="s">
+        <v>29</v>
+      </c>
+      <c r="J28" t="s">
+        <v>60</v>
+      </c>
+      <c r="K28" t="s">
         <v>31</v>
       </c>
-      <c r="I28" t="s">
+      <c r="L28" t="s">
         <v>32</v>
       </c>
-      <c r="J28" t="s">
-        <v>41</v>
-      </c>
-      <c r="K28" t="s">
-        <v>34</v>
-      </c>
-      <c r="L28" t="s">
-        <v>35</v>
-      </c>
       <c r="M28" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N28" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="P28" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="Q28" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="R28">
-        <v>1525702</v>
+        <v>1540028</v>
       </c>
       <c r="S28" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="T28" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="C29">
-        <v>2674210</v>
+        <v>2792423</v>
       </c>
       <c r="D29" t="str">
         <f>VLOOKUP(C29,[1]report1676566213232!$A:$D,4,FALSE)</f>
-        <v>MSCS Computer Science - Align</v>
+        <v>MSCS Computer Science</v>
       </c>
       <c r="E29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" t="s">
         <v>28</v>
       </c>
-      <c r="F29" t="s">
-        <v>61</v>
-      </c>
-      <c r="G29" t="s">
-        <v>69</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
+        <v>29</v>
+      </c>
+      <c r="J29" t="s">
+        <v>38</v>
+      </c>
+      <c r="K29" t="s">
         <v>31</v>
       </c>
-      <c r="I29" t="s">
+      <c r="L29" t="s">
         <v>32</v>
       </c>
-      <c r="J29" t="s">
-        <v>63</v>
-      </c>
-      <c r="K29" t="s">
-        <v>34</v>
-      </c>
-      <c r="L29" t="s">
-        <v>35</v>
-      </c>
       <c r="M29" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N29" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="P29" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="Q29" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="R29">
-        <v>1525702</v>
+        <v>1545504</v>
       </c>
       <c r="S29" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T29" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="U29" t="s">
+        <v>42</v>
+      </c>
+      <c r="W29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" t="s">
         <v>45</v>
       </c>
-      <c r="W29" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23">
-      <c r="A30" t="s">
-        <v>89</v>
-      </c>
-      <c r="B30" t="s">
-        <v>90</v>
-      </c>
       <c r="C30">
-        <v>2702586</v>
+        <v>2792423</v>
       </c>
       <c r="D30" t="str">
         <f>VLOOKUP(C30,[1]report1676566213232!$A:$D,4,FALSE)</f>
-        <v>MSCS Computer Science - Align</v>
+        <v>MSCS Computer Science</v>
       </c>
       <c r="E30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" t="s">
         <v>28</v>
       </c>
-      <c r="F30" t="s">
+      <c r="I30" t="s">
         <v>29</v>
       </c>
-      <c r="G30" t="s">
-        <v>30</v>
-      </c>
-      <c r="H30" t="s">
+      <c r="J30" t="s">
+        <v>38</v>
+      </c>
+      <c r="K30" t="s">
         <v>31</v>
       </c>
-      <c r="I30" t="s">
+      <c r="L30" t="s">
         <v>32</v>
       </c>
-      <c r="J30" t="s">
-        <v>63</v>
-      </c>
-      <c r="K30" t="s">
-        <v>34</v>
-      </c>
-      <c r="L30" t="s">
-        <v>35</v>
-      </c>
       <c r="M30" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N30" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="P30" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="Q30" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="R30">
-        <v>1540028</v>
+        <v>1545504</v>
       </c>
       <c r="S30" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="T30" t="s">
-        <v>40</v>
+        <v>28</v>
+      </c>
+      <c r="U30" t="s">
+        <v>42</v>
+      </c>
+      <c r="W30" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C31">
         <v>2792423</v>
@@ -39000,63 +39108,57 @@
         <v>MSCS Computer Science</v>
       </c>
       <c r="E31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" t="s">
         <v>28</v>
       </c>
-      <c r="F31" t="s">
+      <c r="I31" t="s">
         <v>29</v>
       </c>
-      <c r="G31" t="s">
-        <v>30</v>
-      </c>
-      <c r="H31" t="s">
+      <c r="J31" t="s">
+        <v>38</v>
+      </c>
+      <c r="K31" t="s">
         <v>31</v>
       </c>
-      <c r="I31" t="s">
+      <c r="L31" t="s">
         <v>32</v>
       </c>
-      <c r="J31" t="s">
-        <v>41</v>
-      </c>
-      <c r="K31" t="s">
-        <v>34</v>
-      </c>
-      <c r="L31" t="s">
+      <c r="M31" t="s">
+        <v>33</v>
+      </c>
+      <c r="N31" t="s">
+        <v>44</v>
+      </c>
+      <c r="P31" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q31" t="s">
         <v>35</v>
       </c>
-      <c r="M31" t="s">
+      <c r="R31">
+        <v>1525702</v>
+      </c>
+      <c r="S31" t="s">
         <v>36</v>
       </c>
-      <c r="N31" t="s">
-        <v>47</v>
-      </c>
-      <c r="P31" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>43</v>
-      </c>
-      <c r="R31">
-        <v>1545504</v>
-      </c>
-      <c r="S31" t="s">
+      <c r="T31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>44</v>
       </c>
-      <c r="T31" t="s">
-        <v>31</v>
-      </c>
-      <c r="U31" t="s">
+      <c r="B32" t="s">
         <v>45</v>
-      </c>
-      <c r="W31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23">
-      <c r="A32" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" t="s">
-        <v>48</v>
       </c>
       <c r="C32">
         <v>2792423</v>
@@ -39066,123 +39168,117 @@
         <v>MSCS Computer Science</v>
       </c>
       <c r="E32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" t="s">
         <v>28</v>
       </c>
-      <c r="F32" t="s">
+      <c r="I32" t="s">
         <v>29</v>
       </c>
-      <c r="G32" t="s">
-        <v>30</v>
-      </c>
-      <c r="H32" t="s">
+      <c r="J32" t="s">
+        <v>46</v>
+      </c>
+      <c r="K32" t="s">
         <v>31</v>
       </c>
-      <c r="I32" t="s">
+      <c r="L32" t="s">
         <v>32</v>
       </c>
-      <c r="J32" t="s">
-        <v>41</v>
-      </c>
-      <c r="K32" t="s">
-        <v>34</v>
-      </c>
-      <c r="L32" t="s">
-        <v>35</v>
-      </c>
       <c r="M32" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N32" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P32" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q32" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="R32">
-        <v>1545504</v>
+        <v>1540028</v>
       </c>
       <c r="S32" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="T32" t="s">
-        <v>31</v>
-      </c>
-      <c r="U32" t="s">
-        <v>45</v>
-      </c>
-      <c r="W32" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="C33">
-        <v>2792423</v>
+        <v>2702586</v>
       </c>
       <c r="D33" t="str">
         <f>VLOOKUP(C33,[1]report1676566213232!$A:$D,4,FALSE)</f>
-        <v>MSCS Computer Science</v>
+        <v>MSCS Computer Science - Align</v>
       </c>
       <c r="E33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" t="s">
         <v>28</v>
       </c>
-      <c r="F33" t="s">
+      <c r="I33" t="s">
         <v>29</v>
       </c>
-      <c r="G33" t="s">
-        <v>30</v>
-      </c>
-      <c r="H33" t="s">
+      <c r="J33" t="s">
+        <v>60</v>
+      </c>
+      <c r="K33" t="s">
         <v>31</v>
       </c>
-      <c r="I33" t="s">
+      <c r="L33" t="s">
         <v>32</v>
       </c>
-      <c r="J33" t="s">
-        <v>41</v>
-      </c>
-      <c r="K33" t="s">
-        <v>34</v>
-      </c>
-      <c r="L33" t="s">
-        <v>35</v>
-      </c>
       <c r="M33" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N33" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="P33" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="Q33" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="R33">
-        <v>1525702</v>
+        <v>1608584</v>
       </c>
       <c r="S33" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="T33" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C34">
         <v>2792423</v>
@@ -39192,418 +39288,425 @@
         <v>MSCS Computer Science</v>
       </c>
       <c r="E34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" t="s">
         <v>28</v>
       </c>
-      <c r="F34" t="s">
+      <c r="I34" t="s">
         <v>29</v>
       </c>
-      <c r="G34" t="s">
-        <v>30</v>
-      </c>
-      <c r="H34" t="s">
+      <c r="J34" t="s">
+        <v>38</v>
+      </c>
+      <c r="K34" t="s">
         <v>31</v>
       </c>
-      <c r="I34" t="s">
+      <c r="L34" t="s">
         <v>32</v>
       </c>
-      <c r="J34" t="s">
-        <v>49</v>
-      </c>
-      <c r="K34" t="s">
-        <v>34</v>
-      </c>
-      <c r="L34" t="s">
-        <v>35</v>
-      </c>
       <c r="M34" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N34" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P34" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q34" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="R34">
-        <v>1540028</v>
+        <v>1545504</v>
       </c>
       <c r="S34" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="T34" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="B35" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="C35">
-        <v>2702586</v>
+        <v>2918671</v>
       </c>
       <c r="D35" t="str">
         <f>VLOOKUP(C35,[1]report1676566213232!$A:$D,4,FALSE)</f>
         <v>MSCS Computer Science - Align</v>
       </c>
       <c r="E35" t="s">
+        <v>50</v>
+      </c>
+      <c r="F35" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" t="s">
+        <v>106</v>
+      </c>
+      <c r="H35" t="s">
         <v>28</v>
       </c>
-      <c r="F35" t="s">
+      <c r="I35" t="s">
         <v>29</v>
       </c>
-      <c r="G35" t="s">
-        <v>30</v>
-      </c>
-      <c r="H35" t="s">
+      <c r="J35" t="s">
+        <v>60</v>
+      </c>
+      <c r="K35" t="s">
         <v>31</v>
       </c>
-      <c r="I35" t="s">
+      <c r="L35" t="s">
         <v>32</v>
       </c>
-      <c r="J35" t="s">
-        <v>63</v>
-      </c>
-      <c r="K35" t="s">
-        <v>34</v>
-      </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
+        <v>33</v>
+      </c>
+      <c r="N35" t="s">
+        <v>104</v>
+      </c>
+      <c r="P35" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q35" t="s">
         <v>35</v>
       </c>
-      <c r="M35" t="s">
+      <c r="R35">
+        <v>1525702</v>
+      </c>
+      <c r="S35" t="s">
         <v>36</v>
       </c>
-      <c r="N35" t="s">
-        <v>89</v>
-      </c>
-      <c r="P35" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q35" t="s">
+      <c r="T35" t="s">
+        <v>28</v>
+      </c>
+      <c r="U35" t="s">
+        <v>107</v>
+      </c>
+      <c r="W35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" t="s">
         <v>105</v>
       </c>
-      <c r="R35">
-        <v>1608584</v>
-      </c>
-      <c r="S35" t="s">
-        <v>106</v>
-      </c>
-      <c r="T35" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23">
-      <c r="A36" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36" t="s">
-        <v>48</v>
-      </c>
       <c r="C36">
-        <v>2792423</v>
+        <v>2918671</v>
       </c>
       <c r="D36" t="str">
         <f>VLOOKUP(C36,[1]report1676566213232!$A:$D,4,FALSE)</f>
-        <v>MSCS Computer Science</v>
+        <v>MSCS Computer Science - Align</v>
       </c>
       <c r="E36" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" t="s">
+        <v>106</v>
+      </c>
+      <c r="H36" t="s">
         <v>28</v>
       </c>
-      <c r="F36" t="s">
+      <c r="I36" t="s">
         <v>29</v>
       </c>
-      <c r="G36" t="s">
-        <v>30</v>
-      </c>
-      <c r="H36" t="s">
+      <c r="J36" t="s">
+        <v>60</v>
+      </c>
+      <c r="K36" t="s">
         <v>31</v>
       </c>
-      <c r="I36" t="s">
+      <c r="L36" t="s">
         <v>32</v>
       </c>
-      <c r="J36" t="s">
-        <v>41</v>
-      </c>
-      <c r="K36" t="s">
-        <v>34</v>
-      </c>
-      <c r="L36" t="s">
+      <c r="M36" t="s">
+        <v>33</v>
+      </c>
+      <c r="N36" t="s">
+        <v>104</v>
+      </c>
+      <c r="P36" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q36" t="s">
         <v>35</v>
       </c>
-      <c r="M36" t="s">
+      <c r="R36">
+        <v>1525702</v>
+      </c>
+      <c r="S36" t="s">
         <v>36</v>
       </c>
-      <c r="N36" t="s">
-        <v>47</v>
-      </c>
-      <c r="P36" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>43</v>
-      </c>
-      <c r="R36">
-        <v>1545504</v>
-      </c>
-      <c r="S36" t="s">
-        <v>44</v>
-      </c>
       <c r="T36" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="B37" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="C37">
-        <v>2918671</v>
+        <v>2956442</v>
       </c>
       <c r="D37" t="str">
         <f>VLOOKUP(C37,[1]report1676566213232!$A:$D,4,FALSE)</f>
         <v>MSCS Computer Science - Align</v>
       </c>
       <c r="E37" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="F37" t="s">
+        <v>58</v>
+      </c>
+      <c r="G37" t="s">
+        <v>84</v>
+      </c>
+      <c r="H37" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" t="s">
         <v>29</v>
       </c>
-      <c r="G37" t="s">
-        <v>109</v>
-      </c>
-      <c r="H37" t="s">
+      <c r="J37" t="s">
+        <v>38</v>
+      </c>
+      <c r="K37" t="s">
         <v>31</v>
       </c>
-      <c r="I37" t="s">
+      <c r="L37" t="s">
         <v>32</v>
       </c>
-      <c r="J37" t="s">
-        <v>63</v>
-      </c>
-      <c r="K37" t="s">
-        <v>34</v>
-      </c>
-      <c r="L37" t="s">
+      <c r="M37" t="s">
+        <v>33</v>
+      </c>
+      <c r="N37" t="s">
+        <v>82</v>
+      </c>
+      <c r="P37" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q37" t="s">
         <v>35</v>
-      </c>
-      <c r="M37" t="s">
-        <v>36</v>
-      </c>
-      <c r="N37" t="s">
-        <v>107</v>
-      </c>
-      <c r="P37" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>38</v>
       </c>
       <c r="R37">
         <v>1525702</v>
       </c>
       <c r="S37" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="T37" t="s">
-        <v>31</v>
-      </c>
-      <c r="U37" t="s">
-        <v>110</v>
-      </c>
-      <c r="W37" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B38" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C38">
-        <v>2918671</v>
+        <v>2797352</v>
       </c>
       <c r="D38" t="str">
         <f>VLOOKUP(C38,[1]report1676566213232!$A:$D,4,FALSE)</f>
         <v>MSCS Computer Science - Align</v>
       </c>
       <c r="E38" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="F38" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" t="s">
         <v>29</v>
       </c>
-      <c r="G38" t="s">
-        <v>109</v>
-      </c>
-      <c r="H38" t="s">
+      <c r="J38" t="s">
+        <v>60</v>
+      </c>
+      <c r="K38" t="s">
         <v>31</v>
       </c>
-      <c r="I38" t="s">
+      <c r="L38" t="s">
         <v>32</v>
       </c>
-      <c r="J38" t="s">
-        <v>63</v>
-      </c>
-      <c r="K38" t="s">
-        <v>34</v>
-      </c>
-      <c r="L38" t="s">
-        <v>35</v>
-      </c>
       <c r="M38" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N38" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q38" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="R38">
-        <v>1525702</v>
+        <v>1608584</v>
       </c>
       <c r="S38" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="T38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39">
+        <v>2981578</v>
+      </c>
+      <c r="D39" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" t="s">
+        <v>75</v>
+      </c>
+      <c r="F39" t="s">
+        <v>80</v>
+      </c>
+      <c r="G39" t="s">
+        <v>81</v>
+      </c>
+      <c r="H39" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" t="s">
+        <v>29</v>
+      </c>
+      <c r="J39" t="s">
+        <v>46</v>
+      </c>
+      <c r="K39" t="s">
+        <v>31</v>
+      </c>
+      <c r="L39" t="s">
+        <v>32</v>
+      </c>
+      <c r="M39" t="s">
+        <v>33</v>
+      </c>
+      <c r="N39" t="s">
+        <v>110</v>
+      </c>
+      <c r="P39" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q39" t="s">
         <v>40</v>
       </c>
+      <c r="R39">
+        <v>1545504</v>
+      </c>
+      <c r="S39" t="s">
+        <v>41</v>
+      </c>
+      <c r="T39" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="39" spans="1:23">
-      <c r="A39" t="s">
-        <v>85</v>
-      </c>
-      <c r="B39" t="s">
-        <v>86</v>
-      </c>
-      <c r="C39">
-        <v>2956442</v>
-      </c>
-      <c r="D39" t="str">
-        <f>VLOOKUP(C39,[1]report1676566213232!$A:$D,4,FALSE)</f>
-        <v>MSCS Computer Science - Align</v>
-      </c>
-      <c r="E39" t="s">
-        <v>78</v>
-      </c>
-      <c r="F39" t="s">
-        <v>61</v>
-      </c>
-      <c r="G39" t="s">
-        <v>87</v>
-      </c>
-      <c r="H39" t="s">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40">
+        <v>2981578</v>
+      </c>
+      <c r="D40" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40" t="s">
+        <v>75</v>
+      </c>
+      <c r="F40" t="s">
+        <v>80</v>
+      </c>
+      <c r="G40" t="s">
+        <v>81</v>
+      </c>
+      <c r="H40" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" t="s">
+        <v>29</v>
+      </c>
+      <c r="J40" t="s">
+        <v>46</v>
+      </c>
+      <c r="K40" t="s">
         <v>31</v>
       </c>
-      <c r="I39" t="s">
+      <c r="L40" t="s">
         <v>32</v>
       </c>
-      <c r="J39" t="s">
+      <c r="M40" t="s">
+        <v>33</v>
+      </c>
+      <c r="N40" t="s">
+        <v>110</v>
+      </c>
+      <c r="P40" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>40</v>
+      </c>
+      <c r="R40">
+        <v>1545504</v>
+      </c>
+      <c r="S40" t="s">
         <v>41</v>
       </c>
-      <c r="K39" t="s">
-        <v>34</v>
-      </c>
-      <c r="L39" t="s">
-        <v>35</v>
-      </c>
-      <c r="M39" t="s">
-        <v>36</v>
-      </c>
-      <c r="N39" t="s">
-        <v>85</v>
-      </c>
-      <c r="P39" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>38</v>
-      </c>
-      <c r="R39">
-        <v>1525702</v>
-      </c>
-      <c r="S39" t="s">
-        <v>39</v>
-      </c>
-      <c r="T39" t="s">
+      <c r="T40" t="s">
+        <v>28</v>
+      </c>
+      <c r="U40" t="s">
+        <v>42</v>
+      </c>
+      <c r="V40" t="s">
+        <v>112</v>
+      </c>
+      <c r="W40" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:23">
-      <c r="A40" t="s">
-        <v>111</v>
-      </c>
-      <c r="B40" t="s">
-        <v>112</v>
-      </c>
-      <c r="C40">
-        <v>2797352</v>
-      </c>
-      <c r="D40" t="str">
-        <f>VLOOKUP(C40,[1]report1676566213232!$A:$D,4,FALSE)</f>
-        <v>MSCS Computer Science - Align</v>
-      </c>
-      <c r="E40" t="s">
-        <v>28</v>
-      </c>
-      <c r="F40" t="s">
-        <v>29</v>
-      </c>
-      <c r="G40" t="s">
-        <v>30</v>
-      </c>
-      <c r="H40" t="s">
-        <v>31</v>
-      </c>
-      <c r="I40" t="s">
-        <v>32</v>
-      </c>
-      <c r="J40" t="s">
-        <v>63</v>
-      </c>
-      <c r="K40" t="s">
-        <v>34</v>
-      </c>
-      <c r="L40" t="s">
-        <v>35</v>
-      </c>
-      <c r="M40" t="s">
-        <v>36</v>
-      </c>
-      <c r="N40" t="s">
-        <v>111</v>
-      </c>
-      <c r="P40" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>105</v>
-      </c>
-      <c r="R40">
-        <v>1608584</v>
-      </c>
-      <c r="S40" t="s">
-        <v>106</v>
-      </c>
-      <c r="T40" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>113</v>
       </c>
@@ -39611,1083 +39714,956 @@
         <v>114</v>
       </c>
       <c r="C41">
-        <v>2981578</v>
-      </c>
-      <c r="D41" t="s">
-        <v>52</v>
+        <v>2929389</v>
+      </c>
+      <c r="D41" t="str">
+        <f>VLOOKUP(C41,[1]report1676566213232!$A:$D,4,FALSE)</f>
+        <v>MSCS Computer Science - Align</v>
       </c>
       <c r="E41" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F41" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="G41" t="s">
         <v>84</v>
       </c>
       <c r="H41" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" t="s">
+        <v>29</v>
+      </c>
+      <c r="J41" t="s">
+        <v>71</v>
+      </c>
+      <c r="K41" t="s">
         <v>31</v>
       </c>
-      <c r="I41" t="s">
+      <c r="L41" t="s">
         <v>32</v>
       </c>
-      <c r="J41" t="s">
-        <v>49</v>
-      </c>
-      <c r="K41" t="s">
-        <v>34</v>
-      </c>
-      <c r="L41" t="s">
-        <v>35</v>
-      </c>
       <c r="M41" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N41" t="s">
         <v>113</v>
       </c>
+      <c r="O41" t="s">
+        <v>115</v>
+      </c>
       <c r="P41" t="s">
         <v>113</v>
       </c>
       <c r="Q41" t="s">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="R41">
-        <v>1545504</v>
+        <v>1073330</v>
       </c>
       <c r="S41" t="s">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="T41" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:23">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B42" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C42">
-        <v>2981578</v>
-      </c>
-      <c r="D42" t="s">
-        <v>52</v>
+        <v>2744385</v>
+      </c>
+      <c r="D42" t="str">
+        <f>VLOOKUP(C42,[1]report1676566213232!$A:$D,4,FALSE)</f>
+        <v>MSCS Computer Science - Align</v>
       </c>
       <c r="E42" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="F42" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="G42" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="H42" t="s">
+        <v>28</v>
+      </c>
+      <c r="I42" t="s">
+        <v>29</v>
+      </c>
+      <c r="J42" t="s">
+        <v>71</v>
+      </c>
+      <c r="K42" t="s">
         <v>31</v>
       </c>
-      <c r="I42" t="s">
+      <c r="L42" t="s">
         <v>32</v>
       </c>
-      <c r="J42" t="s">
-        <v>49</v>
-      </c>
-      <c r="K42" t="s">
-        <v>34</v>
-      </c>
-      <c r="L42" t="s">
-        <v>35</v>
-      </c>
       <c r="M42" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N42" t="s">
-        <v>113</v>
+        <v>118</v>
+      </c>
+      <c r="O42" t="s">
+        <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="Q42" t="s">
-        <v>43</v>
+        <v>122</v>
       </c>
       <c r="R42">
-        <v>1545504</v>
+        <v>2198048</v>
       </c>
       <c r="S42" t="s">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="T42" t="s">
-        <v>31</v>
-      </c>
-      <c r="U42" t="s">
-        <v>45</v>
-      </c>
-      <c r="V42" t="s">
-        <v>115</v>
-      </c>
-      <c r="W42" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:23">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B43" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C43">
-        <v>2929389</v>
+        <v>2744385</v>
       </c>
       <c r="D43" t="str">
         <f>VLOOKUP(C43,[1]report1676566213232!$A:$D,4,FALSE)</f>
         <v>MSCS Computer Science - Align</v>
       </c>
       <c r="E43" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="F43" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="G43" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="H43" t="s">
+        <v>28</v>
+      </c>
+      <c r="I43" t="s">
+        <v>29</v>
+      </c>
+      <c r="J43" t="s">
+        <v>71</v>
+      </c>
+      <c r="K43" t="s">
         <v>31</v>
       </c>
-      <c r="I43" t="s">
+      <c r="L43" t="s">
         <v>32</v>
       </c>
-      <c r="J43" t="s">
-        <v>74</v>
-      </c>
-      <c r="K43" t="s">
-        <v>34</v>
-      </c>
-      <c r="L43" t="s">
-        <v>35</v>
-      </c>
       <c r="M43" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N43" t="s">
+        <v>118</v>
+      </c>
+      <c r="O43" t="s">
+        <v>124</v>
+      </c>
+      <c r="P43" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q43" t="s">
         <v>116</v>
-      </c>
-      <c r="O43" t="s">
-        <v>118</v>
-      </c>
-      <c r="P43" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>119</v>
       </c>
       <c r="R43">
         <v>1073330</v>
       </c>
       <c r="S43" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="T43" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:23">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B44" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C44">
-        <v>2744385</v>
+        <v>2770421</v>
       </c>
       <c r="D44" t="str">
         <f>VLOOKUP(C44,[1]report1676566213232!$A:$D,4,FALSE)</f>
         <v>MSCS Computer Science - Align</v>
       </c>
       <c r="E44" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" t="s">
+        <v>26</v>
+      </c>
+      <c r="G44" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" t="s">
         <v>28</v>
       </c>
-      <c r="F44" t="s">
-        <v>123</v>
-      </c>
-      <c r="G44" t="s">
-        <v>30</v>
-      </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
+        <v>29</v>
+      </c>
+      <c r="J44" t="s">
+        <v>60</v>
+      </c>
+      <c r="K44" t="s">
         <v>31</v>
       </c>
-      <c r="I44" t="s">
+      <c r="L44" t="s">
         <v>32</v>
       </c>
-      <c r="J44" t="s">
-        <v>74</v>
-      </c>
-      <c r="K44" t="s">
-        <v>34</v>
-      </c>
-      <c r="L44" t="s">
-        <v>35</v>
-      </c>
       <c r="M44" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N44" t="s">
-        <v>121</v>
-      </c>
-      <c r="O44" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P44" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Q44" t="s">
-        <v>125</v>
+        <v>61</v>
       </c>
       <c r="R44">
-        <v>2198048</v>
+        <v>1540028</v>
       </c>
       <c r="S44" t="s">
-        <v>126</v>
+        <v>62</v>
       </c>
       <c r="T44" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:23">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B45" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C45">
-        <v>2744385</v>
+        <v>2933960</v>
       </c>
       <c r="D45" t="str">
         <f>VLOOKUP(C45,[1]report1676566213232!$A:$D,4,FALSE)</f>
         <v>MSCS Computer Science - Align</v>
       </c>
       <c r="E45" t="s">
+        <v>69</v>
+      </c>
+      <c r="F45" t="s">
+        <v>91</v>
+      </c>
+      <c r="G45" t="s">
+        <v>92</v>
+      </c>
+      <c r="H45" t="s">
         <v>28</v>
       </c>
-      <c r="F45" t="s">
-        <v>123</v>
-      </c>
-      <c r="G45" t="s">
-        <v>30</v>
-      </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
+        <v>29</v>
+      </c>
+      <c r="J45" t="s">
+        <v>38</v>
+      </c>
+      <c r="K45" t="s">
         <v>31</v>
       </c>
-      <c r="I45" t="s">
+      <c r="L45" t="s">
         <v>32</v>
       </c>
-      <c r="J45" t="s">
-        <v>74</v>
-      </c>
-      <c r="K45" t="s">
-        <v>34</v>
-      </c>
-      <c r="L45" t="s">
-        <v>35</v>
-      </c>
       <c r="M45" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N45" t="s">
-        <v>121</v>
-      </c>
-      <c r="O45" t="s">
         <v>127</v>
       </c>
       <c r="P45" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="Q45" t="s">
-        <v>119</v>
+        <v>61</v>
       </c>
       <c r="R45">
-        <v>1073330</v>
+        <v>1540028</v>
       </c>
       <c r="S45" t="s">
-        <v>120</v>
+        <v>62</v>
       </c>
       <c r="T45" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:23">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B46" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C46">
-        <v>2770421</v>
+        <v>2965767</v>
       </c>
       <c r="D46" t="str">
         <f>VLOOKUP(C46,[1]report1676566213232!$A:$D,4,FALSE)</f>
         <v>MSCS Computer Science - Align</v>
       </c>
       <c r="E46" t="s">
+        <v>69</v>
+      </c>
+      <c r="F46" t="s">
+        <v>26</v>
+      </c>
+      <c r="G46" t="s">
+        <v>106</v>
+      </c>
+      <c r="H46" t="s">
         <v>28</v>
       </c>
-      <c r="F46" t="s">
+      <c r="I46" t="s">
         <v>29</v>
       </c>
-      <c r="G46" t="s">
-        <v>30</v>
-      </c>
-      <c r="H46" t="s">
+      <c r="J46" t="s">
+        <v>71</v>
+      </c>
+      <c r="K46" t="s">
         <v>31</v>
       </c>
-      <c r="I46" t="s">
+      <c r="L46" t="s">
         <v>32</v>
       </c>
-      <c r="J46" t="s">
-        <v>63</v>
-      </c>
-      <c r="K46" t="s">
-        <v>34</v>
-      </c>
-      <c r="L46" t="s">
-        <v>35</v>
-      </c>
       <c r="M46" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N46" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P46" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q46" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R46">
         <v>1540028</v>
       </c>
       <c r="S46" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="T46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>131</v>
+      </c>
+      <c r="B47" t="s">
+        <v>132</v>
+      </c>
+      <c r="C47">
+        <v>1005749</v>
+      </c>
+      <c r="D47" t="s">
+        <v>49</v>
+      </c>
+      <c r="E47" t="s">
+        <v>50</v>
+      </c>
+      <c r="F47" t="s">
+        <v>80</v>
+      </c>
+      <c r="G47" t="s">
+        <v>81</v>
+      </c>
+      <c r="H47" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" t="s">
+        <v>29</v>
+      </c>
+      <c r="J47" t="s">
+        <v>46</v>
+      </c>
+      <c r="K47" t="s">
+        <v>31</v>
+      </c>
+      <c r="L47" t="s">
+        <v>32</v>
+      </c>
+      <c r="M47" t="s">
+        <v>33</v>
+      </c>
+      <c r="N47" t="s">
+        <v>131</v>
+      </c>
+      <c r="P47" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q47" t="s">
         <v>40</v>
       </c>
+      <c r="R47">
+        <v>1545504</v>
+      </c>
+      <c r="S47" t="s">
+        <v>41</v>
+      </c>
+      <c r="T47" t="s">
+        <v>28</v>
+      </c>
+      <c r="U47" t="s">
+        <v>42</v>
+      </c>
+      <c r="V47" t="s">
+        <v>112</v>
+      </c>
+      <c r="W47" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="47" spans="1:23">
-      <c r="A47" t="s">
-        <v>130</v>
-      </c>
-      <c r="B47" t="s">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>131</v>
       </c>
-      <c r="C47">
-        <v>2933960</v>
-      </c>
-      <c r="D47" t="str">
-        <f>VLOOKUP(C47,[1]report1676566213232!$A:$D,4,FALSE)</f>
-        <v>MSCS Computer Science - Align</v>
-      </c>
-      <c r="E47" t="s">
-        <v>72</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
-      </c>
-      <c r="G47" t="s">
-        <v>95</v>
-      </c>
-      <c r="H47" t="s">
+      <c r="B48" t="s">
+        <v>132</v>
+      </c>
+      <c r="C48">
+        <v>1005749</v>
+      </c>
+      <c r="D48" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" t="s">
+        <v>50</v>
+      </c>
+      <c r="F48" t="s">
+        <v>80</v>
+      </c>
+      <c r="G48" t="s">
+        <v>81</v>
+      </c>
+      <c r="H48" t="s">
+        <v>28</v>
+      </c>
+      <c r="I48" t="s">
+        <v>29</v>
+      </c>
+      <c r="J48" t="s">
+        <v>60</v>
+      </c>
+      <c r="K48" t="s">
         <v>31</v>
       </c>
-      <c r="I47" t="s">
+      <c r="L48" t="s">
         <v>32</v>
       </c>
-      <c r="J47" t="s">
-        <v>41</v>
-      </c>
-      <c r="K47" t="s">
-        <v>34</v>
-      </c>
-      <c r="L47" t="s">
-        <v>35</v>
-      </c>
-      <c r="M47" t="s">
-        <v>36</v>
-      </c>
-      <c r="N47" t="s">
-        <v>130</v>
-      </c>
-      <c r="P47" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>64</v>
-      </c>
-      <c r="R47">
-        <v>1540028</v>
-      </c>
-      <c r="S47" t="s">
-        <v>65</v>
-      </c>
-      <c r="T47" t="s">
-        <v>40</v>
+      <c r="M48" t="s">
+        <v>33</v>
+      </c>
+      <c r="N48" t="s">
+        <v>131</v>
+      </c>
+      <c r="P48" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>122</v>
+      </c>
+      <c r="R48">
+        <v>2198048</v>
+      </c>
+      <c r="S48" t="s">
+        <v>123</v>
+      </c>
+      <c r="T48" t="s">
+        <v>28</v>
+      </c>
+      <c r="U48" t="s">
+        <v>133</v>
+      </c>
+      <c r="V48" t="s">
+        <v>134</v>
+      </c>
+      <c r="W48" t="s">
+        <v>131</v>
       </c>
     </row>
-    <row r="48" spans="1:23">
-      <c r="A48" t="s">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>131</v>
+      </c>
+      <c r="B49" t="s">
         <v>132</v>
-      </c>
-      <c r="B48" t="s">
-        <v>133</v>
-      </c>
-      <c r="C48">
-        <v>2965767</v>
-      </c>
-      <c r="D48" t="str">
-        <f>VLOOKUP(C48,[1]report1676566213232!$A:$D,4,FALSE)</f>
-        <v>MSCS Computer Science - Align</v>
-      </c>
-      <c r="E48" t="s">
-        <v>72</v>
-      </c>
-      <c r="F48" t="s">
-        <v>29</v>
-      </c>
-      <c r="G48" t="s">
-        <v>109</v>
-      </c>
-      <c r="H48" t="s">
-        <v>31</v>
-      </c>
-      <c r="I48" t="s">
-        <v>32</v>
-      </c>
-      <c r="J48" t="s">
-        <v>74</v>
-      </c>
-      <c r="K48" t="s">
-        <v>34</v>
-      </c>
-      <c r="L48" t="s">
-        <v>35</v>
-      </c>
-      <c r="M48" t="s">
-        <v>36</v>
-      </c>
-      <c r="N48" t="s">
-        <v>132</v>
-      </c>
-      <c r="P48" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>64</v>
-      </c>
-      <c r="R48">
-        <v>1540028</v>
-      </c>
-      <c r="S48" t="s">
-        <v>65</v>
-      </c>
-      <c r="T48" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23">
-      <c r="A49" t="s">
-        <v>134</v>
-      </c>
-      <c r="B49" t="s">
-        <v>135</v>
       </c>
       <c r="C49">
         <v>1005749</v>
       </c>
       <c r="D49" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E49" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F49" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G49" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H49" t="s">
+        <v>28</v>
+      </c>
+      <c r="I49" t="s">
+        <v>29</v>
+      </c>
+      <c r="J49" t="s">
+        <v>30</v>
+      </c>
+      <c r="K49" t="s">
         <v>31</v>
       </c>
-      <c r="I49" t="s">
+      <c r="L49" t="s">
         <v>32</v>
       </c>
-      <c r="J49" t="s">
-        <v>49</v>
-      </c>
-      <c r="K49" t="s">
-        <v>34</v>
-      </c>
-      <c r="L49" t="s">
-        <v>35</v>
-      </c>
       <c r="M49" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N49" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P49" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q49" t="s">
-        <v>43</v>
+        <v>122</v>
       </c>
       <c r="R49">
-        <v>1545504</v>
+        <v>2198048</v>
       </c>
       <c r="S49" t="s">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="T49" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="U49" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="V49" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="W49" t="s">
-        <v>43</v>
+        <v>131</v>
       </c>
     </row>
-    <row r="50" spans="1:23">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B50" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C50">
         <v>1005749</v>
       </c>
       <c r="D50" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>50</v>
+      </c>
+      <c r="F50" t="s">
+        <v>80</v>
+      </c>
+      <c r="G50" t="s">
+        <v>81</v>
+      </c>
+      <c r="H50" t="s">
+        <v>28</v>
+      </c>
+      <c r="I50" t="s">
+        <v>29</v>
+      </c>
+      <c r="J50" t="s">
+        <v>38</v>
+      </c>
+      <c r="K50" t="s">
+        <v>31</v>
+      </c>
+      <c r="L50" t="s">
+        <v>32</v>
+      </c>
+      <c r="M50" t="s">
+        <v>33</v>
+      </c>
+      <c r="N50" t="s">
+        <v>131</v>
+      </c>
+      <c r="P50" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>40</v>
+      </c>
+      <c r="R50">
+        <v>1545504</v>
+      </c>
+      <c r="S50" t="s">
+        <v>41</v>
+      </c>
+      <c r="T50" t="s">
+        <v>28</v>
+      </c>
+      <c r="U50" t="s">
+        <v>42</v>
+      </c>
+      <c r="V50" t="s">
+        <v>136</v>
+      </c>
+      <c r="W50" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>137</v>
+      </c>
+      <c r="B51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C51">
+        <v>1525383</v>
+      </c>
+      <c r="D51" t="str">
+        <f>VLOOKUP(C51,[1]report1676566213232!$A:$D,4,FALSE)</f>
+        <v>MSCS Computer Science - Align</v>
+      </c>
+      <c r="E51" t="s">
+        <v>75</v>
+      </c>
+      <c r="F51" t="s">
+        <v>58</v>
+      </c>
+      <c r="G51" t="s">
+        <v>70</v>
+      </c>
+      <c r="H51" t="s">
+        <v>28</v>
+      </c>
+      <c r="I51" t="s">
+        <v>29</v>
+      </c>
+      <c r="J51" t="s">
+        <v>71</v>
+      </c>
+      <c r="K51" t="s">
+        <v>31</v>
+      </c>
+      <c r="L51" t="s">
+        <v>32</v>
+      </c>
+      <c r="M51" t="s">
+        <v>33</v>
+      </c>
+      <c r="N51" t="s">
+        <v>137</v>
+      </c>
+      <c r="P51" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>116</v>
+      </c>
+      <c r="R51">
+        <v>1073330</v>
+      </c>
+      <c r="S51" t="s">
+        <v>117</v>
+      </c>
+      <c r="T51" t="s">
+        <v>28</v>
+      </c>
+      <c r="U51" t="s">
+        <v>42</v>
+      </c>
+      <c r="V51" t="s">
+        <v>139</v>
+      </c>
+      <c r="W51" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>140</v>
+      </c>
+      <c r="B52" t="s">
+        <v>141</v>
+      </c>
+      <c r="C52">
+        <v>2196101</v>
+      </c>
+      <c r="D52" t="s">
+        <v>49</v>
+      </c>
+      <c r="E52" t="s">
+        <v>75</v>
+      </c>
+      <c r="F52" t="s">
+        <v>54</v>
+      </c>
+      <c r="G52" t="s">
+        <v>142</v>
+      </c>
+      <c r="H52" t="s">
+        <v>28</v>
+      </c>
+      <c r="I52" t="s">
+        <v>29</v>
+      </c>
+      <c r="J52" t="s">
+        <v>71</v>
+      </c>
+      <c r="K52" t="s">
+        <v>31</v>
+      </c>
+      <c r="L52" t="s">
+        <v>32</v>
+      </c>
+      <c r="M52" t="s">
+        <v>33</v>
+      </c>
+      <c r="N52" t="s">
+        <v>140</v>
+      </c>
+      <c r="P52" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>122</v>
+      </c>
+      <c r="R52">
+        <v>2198048</v>
+      </c>
+      <c r="S52" t="s">
+        <v>123</v>
+      </c>
+      <c r="T52" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>131</v>
+      </c>
+      <c r="B53" t="s">
+        <v>132</v>
+      </c>
+      <c r="C53">
+        <v>1005749</v>
+      </c>
+      <c r="D53" t="s">
+        <v>49</v>
+      </c>
+      <c r="E53" t="s">
+        <v>50</v>
+      </c>
+      <c r="F53" t="s">
+        <v>80</v>
+      </c>
+      <c r="G53" t="s">
+        <v>81</v>
+      </c>
+      <c r="H53" t="s">
+        <v>28</v>
+      </c>
+      <c r="I53" t="s">
+        <v>29</v>
+      </c>
+      <c r="J53" t="s">
+        <v>38</v>
+      </c>
+      <c r="K53" t="s">
+        <v>31</v>
+      </c>
+      <c r="L53" t="s">
+        <v>32</v>
+      </c>
+      <c r="M53" t="s">
+        <v>33</v>
+      </c>
+      <c r="N53" t="s">
+        <v>131</v>
+      </c>
+      <c r="P53" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>61</v>
+      </c>
+      <c r="R53">
+        <v>1540028</v>
+      </c>
+      <c r="S53" t="s">
+        <v>62</v>
+      </c>
+      <c r="T53" t="s">
+        <v>28</v>
+      </c>
+      <c r="U53" t="s">
+        <v>42</v>
+      </c>
+      <c r="V53" t="s">
+        <v>143</v>
+      </c>
+      <c r="W53" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>144</v>
+      </c>
+      <c r="B54" t="s">
+        <v>145</v>
+      </c>
+      <c r="C54">
+        <v>2925760</v>
+      </c>
+      <c r="D54" t="str">
+        <f>VLOOKUP(C54,[1]report1676566213232!$A:$D,4,FALSE)</f>
+        <v>MSCS Computer Science - Align</v>
+      </c>
+      <c r="E54" t="s">
+        <v>25</v>
+      </c>
+      <c r="F54" t="s">
+        <v>58</v>
+      </c>
+      <c r="G54" t="s">
+        <v>70</v>
+      </c>
+      <c r="H54" t="s">
+        <v>28</v>
+      </c>
+      <c r="I54" t="s">
+        <v>29</v>
+      </c>
+      <c r="J54" t="s">
+        <v>60</v>
+      </c>
+      <c r="K54" t="s">
+        <v>31</v>
+      </c>
+      <c r="L54" t="s">
+        <v>32</v>
+      </c>
+      <c r="M54" t="s">
+        <v>33</v>
+      </c>
+      <c r="N54" t="s">
+        <v>144</v>
+      </c>
+      <c r="P54" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>116</v>
+      </c>
+      <c r="R54">
+        <v>1073330</v>
+      </c>
+      <c r="S54" t="s">
+        <v>117</v>
+      </c>
+      <c r="T54" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>144</v>
+      </c>
+      <c r="B55" t="s">
+        <v>145</v>
+      </c>
+      <c r="C55">
+        <v>2925760</v>
+      </c>
+      <c r="D55" t="str">
+        <f>VLOOKUP(C55,[1]report1676566213232!$A:$D,4,FALSE)</f>
+        <v>MSCS Computer Science - Align</v>
+      </c>
+      <c r="E55" t="s">
+        <v>25</v>
+      </c>
+      <c r="F55" t="s">
+        <v>58</v>
+      </c>
+      <c r="G55" t="s">
+        <v>70</v>
+      </c>
+      <c r="H55" t="s">
+        <v>28</v>
+      </c>
+      <c r="I55" t="s">
+        <v>29</v>
+      </c>
+      <c r="J55" t="s">
         <v>52</v>
       </c>
-      <c r="E50" t="s">
-        <v>53</v>
-      </c>
-      <c r="F50" t="s">
-        <v>83</v>
-      </c>
-      <c r="G50" t="s">
-        <v>84</v>
-      </c>
-      <c r="H50" t="s">
+      <c r="K55" t="s">
         <v>31</v>
       </c>
-      <c r="I50" t="s">
+      <c r="L55" t="s">
         <v>32</v>
       </c>
-      <c r="J50" t="s">
-        <v>63</v>
-      </c>
-      <c r="K50" t="s">
-        <v>34</v>
-      </c>
-      <c r="L50" t="s">
-        <v>35</v>
-      </c>
-      <c r="M50" t="s">
-        <v>36</v>
-      </c>
-      <c r="N50" t="s">
-        <v>134</v>
-      </c>
-      <c r="P50" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>125</v>
-      </c>
-      <c r="R50">
-        <v>2198048</v>
-      </c>
-      <c r="S50" t="s">
-        <v>126</v>
-      </c>
-      <c r="T50" t="s">
-        <v>31</v>
-      </c>
-      <c r="U50" t="s">
-        <v>136</v>
-      </c>
-      <c r="V50" t="s">
-        <v>137</v>
-      </c>
-      <c r="W50" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23">
-      <c r="A51" t="s">
-        <v>134</v>
-      </c>
-      <c r="B51" t="s">
-        <v>135</v>
-      </c>
-      <c r="C51">
-        <v>1005749</v>
-      </c>
-      <c r="D51" t="s">
-        <v>52</v>
-      </c>
-      <c r="E51" t="s">
-        <v>53</v>
-      </c>
-      <c r="F51" t="s">
-        <v>83</v>
-      </c>
-      <c r="G51" t="s">
-        <v>84</v>
-      </c>
-      <c r="H51" t="s">
-        <v>31</v>
-      </c>
-      <c r="I51" t="s">
-        <v>32</v>
-      </c>
-      <c r="J51" t="s">
+      <c r="M55" t="s">
         <v>33</v>
       </c>
-      <c r="K51" t="s">
-        <v>34</v>
-      </c>
-      <c r="L51" t="s">
-        <v>35</v>
-      </c>
-      <c r="M51" t="s">
-        <v>36</v>
-      </c>
-      <c r="N51" t="s">
-        <v>134</v>
-      </c>
-      <c r="P51" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>125</v>
-      </c>
-      <c r="R51">
-        <v>2198048</v>
-      </c>
-      <c r="S51" t="s">
-        <v>126</v>
-      </c>
-      <c r="T51" t="s">
-        <v>31</v>
-      </c>
-      <c r="U51" t="s">
-        <v>136</v>
-      </c>
-      <c r="V51" t="s">
-        <v>138</v>
-      </c>
-      <c r="W51" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23">
-      <c r="A52" t="s">
-        <v>134</v>
-      </c>
-      <c r="B52" t="s">
-        <v>135</v>
-      </c>
-      <c r="C52">
-        <v>1005749</v>
-      </c>
-      <c r="D52" t="s">
-        <v>52</v>
-      </c>
-      <c r="E52" t="s">
-        <v>53</v>
-      </c>
-      <c r="F52" t="s">
-        <v>83</v>
-      </c>
-      <c r="G52" t="s">
-        <v>84</v>
-      </c>
-      <c r="H52" t="s">
-        <v>31</v>
-      </c>
-      <c r="I52" t="s">
-        <v>32</v>
-      </c>
-      <c r="J52" t="s">
-        <v>41</v>
-      </c>
-      <c r="K52" t="s">
-        <v>34</v>
-      </c>
-      <c r="L52" t="s">
-        <v>35</v>
-      </c>
-      <c r="M52" t="s">
-        <v>36</v>
-      </c>
-      <c r="N52" t="s">
-        <v>134</v>
-      </c>
-      <c r="P52" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>43</v>
-      </c>
-      <c r="R52">
-        <v>1545504</v>
-      </c>
-      <c r="S52" t="s">
-        <v>44</v>
-      </c>
-      <c r="T52" t="s">
-        <v>31</v>
-      </c>
-      <c r="U52" t="s">
-        <v>45</v>
-      </c>
-      <c r="V52" t="s">
-        <v>139</v>
-      </c>
-      <c r="W52" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23">
-      <c r="A53" t="s">
-        <v>140</v>
-      </c>
-      <c r="B53" t="s">
-        <v>141</v>
-      </c>
-      <c r="C53">
-        <v>1525383</v>
-      </c>
-      <c r="D53" t="str">
-        <f>VLOOKUP(C53,[1]report1676566213232!$A:$D,4,FALSE)</f>
-        <v>MSCS Computer Science - Align</v>
-      </c>
-      <c r="E53" t="s">
-        <v>78</v>
-      </c>
-      <c r="F53" t="s">
-        <v>61</v>
-      </c>
-      <c r="G53" t="s">
-        <v>73</v>
-      </c>
-      <c r="H53" t="s">
-        <v>31</v>
-      </c>
-      <c r="I53" t="s">
-        <v>32</v>
-      </c>
-      <c r="J53" t="s">
-        <v>74</v>
-      </c>
-      <c r="K53" t="s">
-        <v>34</v>
-      </c>
-      <c r="L53" t="s">
-        <v>35</v>
-      </c>
-      <c r="M53" t="s">
-        <v>36</v>
-      </c>
-      <c r="N53" t="s">
-        <v>140</v>
-      </c>
-      <c r="P53" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>119</v>
-      </c>
-      <c r="R53">
-        <v>1073330</v>
-      </c>
-      <c r="S53" t="s">
-        <v>120</v>
-      </c>
-      <c r="T53" t="s">
-        <v>31</v>
-      </c>
-      <c r="U53" t="s">
-        <v>45</v>
-      </c>
-      <c r="V53" t="s">
-        <v>142</v>
-      </c>
-      <c r="W53" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23">
-      <c r="A54" t="s">
-        <v>143</v>
-      </c>
-      <c r="B54" t="s">
+      <c r="N55" t="s">
         <v>144</v>
       </c>
-      <c r="C54">
-        <v>2196101</v>
-      </c>
-      <c r="D54" t="s">
-        <v>52</v>
-      </c>
-      <c r="E54" t="s">
-        <v>78</v>
-      </c>
-      <c r="F54" t="s">
-        <v>57</v>
-      </c>
-      <c r="G54" t="s">
-        <v>145</v>
-      </c>
-      <c r="H54" t="s">
-        <v>31</v>
-      </c>
-      <c r="I54" t="s">
-        <v>32</v>
-      </c>
-      <c r="J54" t="s">
-        <v>74</v>
-      </c>
-      <c r="K54" t="s">
-        <v>34</v>
-      </c>
-      <c r="L54" t="s">
-        <v>35</v>
-      </c>
-      <c r="M54" t="s">
-        <v>36</v>
-      </c>
-      <c r="N54" t="s">
-        <v>143</v>
-      </c>
-      <c r="P54" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>125</v>
-      </c>
-      <c r="R54">
-        <v>2198048</v>
-      </c>
-      <c r="S54" t="s">
-        <v>126</v>
-      </c>
-      <c r="T54" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23">
-      <c r="A55" t="s">
-        <v>134</v>
-      </c>
-      <c r="B55" t="s">
-        <v>135</v>
-      </c>
-      <c r="C55">
-        <v>1005749</v>
-      </c>
-      <c r="D55" t="s">
-        <v>52</v>
-      </c>
-      <c r="E55" t="s">
-        <v>53</v>
-      </c>
-      <c r="F55" t="s">
-        <v>83</v>
-      </c>
-      <c r="G55" t="s">
-        <v>84</v>
-      </c>
-      <c r="H55" t="s">
-        <v>31</v>
-      </c>
-      <c r="I55" t="s">
-        <v>32</v>
-      </c>
-      <c r="J55" t="s">
-        <v>41</v>
-      </c>
-      <c r="K55" t="s">
-        <v>34</v>
-      </c>
-      <c r="L55" t="s">
-        <v>35</v>
-      </c>
-      <c r="M55" t="s">
-        <v>36</v>
-      </c>
-      <c r="N55" t="s">
-        <v>134</v>
+      <c r="O55" t="s">
+        <v>146</v>
       </c>
       <c r="P55" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="Q55" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="R55">
-        <v>1540028</v>
+        <v>1608584</v>
       </c>
       <c r="S55" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="T55" t="s">
-        <v>31</v>
-      </c>
-      <c r="U55" t="s">
-        <v>45</v>
-      </c>
-      <c r="V55" t="s">
-        <v>146</v>
-      </c>
-      <c r="W55" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23">
-      <c r="A56" t="s">
-        <v>147</v>
-      </c>
-      <c r="B56" t="s">
-        <v>148</v>
-      </c>
-      <c r="C56">
-        <v>2925760</v>
-      </c>
-      <c r="D56" t="str">
-        <f>VLOOKUP(C56,[1]report1676566213232!$A:$D,4,FALSE)</f>
-        <v>MSCS Computer Science - Align</v>
-      </c>
-      <c r="E56" t="s">
-        <v>28</v>
-      </c>
-      <c r="F56" t="s">
-        <v>61</v>
-      </c>
-      <c r="G56" t="s">
-        <v>73</v>
-      </c>
-      <c r="H56" t="s">
-        <v>31</v>
-      </c>
-      <c r="I56" t="s">
-        <v>32</v>
-      </c>
-      <c r="J56" t="s">
-        <v>63</v>
-      </c>
-      <c r="K56" t="s">
-        <v>34</v>
-      </c>
-      <c r="L56" t="s">
-        <v>35</v>
-      </c>
-      <c r="M56" t="s">
-        <v>36</v>
-      </c>
-      <c r="N56" t="s">
-        <v>147</v>
-      </c>
-      <c r="P56" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>119</v>
-      </c>
-      <c r="R56">
-        <v>1073330</v>
-      </c>
-      <c r="S56" t="s">
-        <v>120</v>
-      </c>
-      <c r="T56" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23">
-      <c r="A57" t="s">
-        <v>147</v>
-      </c>
-      <c r="B57" t="s">
-        <v>148</v>
-      </c>
-      <c r="C57">
-        <v>2925760</v>
-      </c>
-      <c r="D57" t="str">
-        <f>VLOOKUP(C57,[1]report1676566213232!$A:$D,4,FALSE)</f>
-        <v>MSCS Computer Science - Align</v>
-      </c>
-      <c r="E57" t="s">
-        <v>28</v>
-      </c>
-      <c r="F57" t="s">
-        <v>61</v>
-      </c>
-      <c r="G57" t="s">
-        <v>73</v>
-      </c>
-      <c r="H57" t="s">
-        <v>31</v>
-      </c>
-      <c r="I57" t="s">
-        <v>32</v>
-      </c>
-      <c r="J57" t="s">
-        <v>55</v>
-      </c>
-      <c r="K57" t="s">
-        <v>34</v>
-      </c>
-      <c r="L57" t="s">
-        <v>35</v>
-      </c>
-      <c r="M57" t="s">
-        <v>36</v>
-      </c>
-      <c r="N57" t="s">
-        <v>147</v>
-      </c>
-      <c r="O57" t="s">
-        <v>149</v>
-      </c>
-      <c r="P57" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>105</v>
-      </c>
-      <c r="R57">
-        <v>1608584</v>
-      </c>
-      <c r="S57" t="s">
-        <v>106</v>
-      </c>
-      <c r="T57" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
